--- a/src/test/resources/Data/Datos.xlsx
+++ b/src/test/resources/Data/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\IdeaProjects\Reto2\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDF5170-73A0-4FB4-B51B-378753FBFAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A5BB8C-C513-42B9-8DF7-A9B6FDAA3AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E98BB18-83C7-4908-B91D-3C9E352A6823}"/>
   </bookViews>
@@ -65,10 +65,10 @@
     <t>Producto</t>
   </si>
   <si>
-    <t>Nintendo</t>
-  </si>
-  <si>
     <t>mre1111@yopmail.com</t>
+  </si>
+  <si>
+    <t>Televisor</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -485,7 +485,7 @@
         <v>3148548847</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/Datos.xlsx
+++ b/src/test/resources/Data/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\IdeaProjects\Reto2\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A5BB8C-C513-42B9-8DF7-A9B6FDAA3AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26213DC-E7DB-4867-98C2-DB4095E09409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E98BB18-83C7-4908-B91D-3C9E352A6823}"/>
   </bookViews>
@@ -68,7 +68,7 @@
     <t>mre1111@yopmail.com</t>
   </si>
   <si>
-    <t>Televisor</t>
+    <t>Lavadora</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
